--- a/src/main/java/com/testdata/testdata.xlsx
+++ b/src/main/java/com/testdata/testdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>FirstName</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>10:05</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -187,14 +196,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -494,7 +502,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,8 +540,10 @@
       <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -557,6 +567,9 @@
       <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -580,6 +593,9 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -603,6 +619,9 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -626,6 +645,9 @@
       <c r="G5" t="s">
         <v>27</v>
       </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -648,6 +670,9 @@
       </c>
       <c r="G6" t="s">
         <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/testdata/testdata.xlsx
+++ b/src/main/java/com/testdata/testdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>FirstName</t>
   </si>
@@ -67,12 +67,6 @@
     <t>222222222</t>
   </si>
   <si>
-    <t>'22222222</t>
-  </si>
-  <si>
-    <t>22222222</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Birthdate</t>
   </si>
   <si>
-    <t>'02-11-1990</t>
-  </si>
-  <si>
     <t>02-11-1990</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
   </si>
   <si>
     <t>(571)-379-0222</t>
-  </si>
-  <si>
-    <t>'(571)-379-0222</t>
   </si>
   <si>
     <t>22003</t>
@@ -196,7 +184,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +491,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -532,16 +521,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I1" s="6"/>
     </row>
@@ -559,42 +548,42 @@
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -607,20 +596,20 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -633,20 +622,20 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -659,20 +648,20 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -701,30 +690,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
